--- a/Hustle Monthly Collection.xlsx
+++ b/Hustle Monthly Collection.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -780,6 +780,9 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -901,11 +904,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43072896"/>
-        <c:axId val="45675264"/>
+        <c:axId val="49953792"/>
+        <c:axId val="117478912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43072896"/>
+        <c:axId val="49953792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45675264"/>
+        <c:crossAx val="117478912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -922,7 +925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45675264"/>
+        <c:axId val="117478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43072896"/>
+        <c:crossAx val="49953792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3381,7 +3384,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8707,8 +8710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E335"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,7 +14427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
